--- a/DWAVJobKorea/Result/채용정보20220225.xlsx
+++ b/DWAVJobKorea/Result/채용정보20220225.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\07_RPA\workspace\DWAVRPA\DWAVRPA\DWAVJobKorea\Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA_20210928\RPA project\DWAVRPA\DWAVJobKorea\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8790E1BA-E01A-44CB-B8F6-ED8F54FB3656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1725" windowWidth="15885" windowHeight="11850" xr2:uid="{C81D3F57-3C34-4F3F-B7EF-376C56284B7E}"/>
+    <workbookView xWindow="0" yWindow="1725" windowWidth="15885" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="사람인" sheetId="3" r:id="rId1"/>
     <sheet name="잡코리아" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,12 +34,659 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="324">
+  <si>
+    <t>대졸↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대졸↑</t>
+  </si>
+  <si>
+    <t>서울 강남구</t>
+  </si>
+  <si>
+    <t>서울 강남구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력무관</t>
+  </si>
+  <si>
+    <t>초대졸↑</t>
+  </si>
+  <si>
+    <t>서울 중구</t>
+  </si>
+  <si>
+    <t>서울 중구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신입·경력</t>
+  </si>
+  <si>
+    <t>서울 영등포구</t>
+  </si>
+  <si>
+    <t>정규직·계약직</t>
+  </si>
+  <si>
+    <t>상시채용</t>
+  </si>
+  <si>
+    <t>신입</t>
+  </si>
+  <si>
+    <t>정규직</t>
+  </si>
+  <si>
+    <t>~ 03/05(토)</t>
+  </si>
+  <si>
+    <t>~ 03/06(일)</t>
+  </si>
+  <si>
+    <t>오늘마감</t>
+  </si>
+  <si>
+    <t>테이크솔루션(주)</t>
+  </si>
+  <si>
+    <t>[경력&amp;신입] RPA사업부 개발 및 구축 인재 모집</t>
+  </si>
+  <si>
+    <t>비바엔에스</t>
+  </si>
+  <si>
+    <t>RPA 스크립트 개발 및 기술지원</t>
+  </si>
+  <si>
+    <t>메이븐클라우드서비스(주)</t>
+  </si>
+  <si>
+    <t>데이터시각화, RPA 개발자, Azure 엔지니어 (신입/경력)</t>
+  </si>
+  <si>
+    <t>(주)카이정보</t>
+  </si>
+  <si>
+    <t>2022년 웹프로그래머 신입, 경력 채용합니다</t>
+  </si>
+  <si>
+    <t>정규직·프리랜서</t>
+  </si>
+  <si>
+    <t>~ 03/31(목)</t>
+  </si>
+  <si>
+    <t>(주)마이링크</t>
+  </si>
+  <si>
+    <t>[MY LINK] 2022 상반기 웹개발,S/W, Big Data, AI 각 신입 채용</t>
+  </si>
+  <si>
+    <t>대전 유성구</t>
+  </si>
+  <si>
+    <t>~ 03/21(월)</t>
+  </si>
+  <si>
+    <t>(주)와이티</t>
+  </si>
+  <si>
+    <t>Java 웹개발자 채용 [신입(정규직)]</t>
+  </si>
+  <si>
+    <t>~ 04/17(일)</t>
+  </si>
+  <si>
+    <t>인지소프트</t>
+  </si>
+  <si>
+    <t>(주)인지소프트 RPA프로젝트수행 신입/경력직 채용</t>
+  </si>
+  <si>
+    <t>~ 04/25(월)</t>
+  </si>
+  <si>
+    <t>(주)부뜰정보시스템</t>
+  </si>
+  <si>
+    <t>[정규직] RPA 개발자 신입사원 채용 공고</t>
+  </si>
+  <si>
+    <t>(주)이든티앤에스</t>
+  </si>
+  <si>
+    <t>[정규직] RPA 개발자/PM 신입/경력 모집합니다</t>
+  </si>
+  <si>
+    <t>㈜피죤</t>
+  </si>
+  <si>
+    <t>[(주)피죤] IT팀 신입/경력사원 모집</t>
+  </si>
+  <si>
+    <t>~ 03/04(금)</t>
+  </si>
   <si>
     <t>회사명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>업무와 삶의 균형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력무관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대졸↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신입·경력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채용공고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/09(수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/02(수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘에스오토모티브테크놀로지스(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS오토모티브 2022년 신입/경력 공개채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 안양시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/06(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학력무관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/20(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 중구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 02/28(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신입·경력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 서초구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규직·계약직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대졸↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력무관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학력무관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘마감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산 해운대구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력무관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/06(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 강남구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대졸↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 02/27(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/11(금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 영등포구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/05(토)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[신입/경력] RPA 개발 및 유지보수 인력 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 광진구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/13(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상정보기술(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/05(토)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 구로구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/14(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 성남시 분당구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력3년↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)이테크시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM / PL / 개발자 채용 - RPA 개발 및 프로젝트 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력무관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상정보기술(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[대상정보기술] 그룹웨어 시스템 유지보수 담당자 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)한국인프라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창원사무소(경남 창원 근무) S/W개발자모집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남 창원시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 04/12(화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메가존(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[메가존] 데이터 사업 부문 개발자 경력 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 06/30(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)하이아스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA 개발자 global 솔류션 delivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 영등포구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 04/09(토)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~05/17(화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜다한정보기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신입·경력1년↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고졸↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~03/10(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이컴라인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 종로구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~05/26(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.[염창동] 화면개발, 자바, VUE-JS, JAVA, 금융, 은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 강서구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~05/26(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java, Java, Java, 금융, 은행, 자바, 화면개발, vue-js, SI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.[분당] 등급무관,pmo, java, unity, 초급, 중급, 고급, 메타버스, 게임, c#, spring, 전자정부프레임워크, 전자정부f/w, 웹개발자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 성남시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java, Java, Java, 게임, 자바, 전자정부F/W, PMO, SPRING, 메타버스, SI, jsp, C#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.[광화문] 자바, java, 보험, 금융</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력10년↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 성남시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java, Java, Java, 게임, 자바, 전자정부F/W, PMO, SPRING, 메타버스, SI, jsp, C#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이컴라인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력6년↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 종로구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java, Java, Java, 금융, 보험, 자바, SI, jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 강서구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.[분당] 등급무관,pmo, java, unity, 초급, 중급, 고급, 메타버스, 게임, c#, spring, 전자정부프레임워크, 전자정부f/w, 웹개발자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력10년↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근로계약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충남 천안시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 송파구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규직·기간제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스케이바이오팜(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[SK바이오팜] 신약개발 R&amp;D 웹 플랫폼 개발 경력 구성원 모집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력 5~10년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)한국씨티은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022년 인사/전산/오퍼레이션 부문 경력직 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/12(토)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)래피젠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 래피젠 공개채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 안양시 동안구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/31(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청오디피케이(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도미노피자 각 부문 (자회사/관계사포함) 공개채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규직·파트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이치엔아이엔씨(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HN (舊현대BS&amp;C 주식회사) [IT부문 / 건설부문 / 지원부문] 신입/경력 채용공고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)페이타랩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대규모 투자유치로 급성장중인 스타트업 '패스오더' 전직군 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)에이텍에이피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 에이텍 인재영입 신입/경력 모집공고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모트렉스(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 부문 신입 및 경력 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)무스마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상반기 각 부문 신입 및 경력 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복쇼핑(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022년 각 부문별 경력/신입 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/01(화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)코비젼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)코비젼 각 부문 경력/신입 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니셈(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니셈(주) 각부문 신입/경력사원 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리노드(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[트리노드] 전 직군 인재 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>모집공고명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,35 +735,223 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>㈜아이센스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)아이센스 헬스케어 서비스 개발자 모집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>대졸↑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>서울 서초구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~03/13(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강, 바이오, 보건, 생명공학, 의료기기, 기획, 서비스기획, 데이터베이스, DB2, DBA, MS-SQL, MySQL, SQL, 데이터마이닝, 네트워크관리, 네트워크엔지니어, 서버관리자, 서버구축, 시스템운영, 모바일기획, 사용자평가, 웹기획, 웹서비스기획, 정보설계, 제안·컨설팅, 컨텐츠기획, 통계·로그분석, PM, UI설계, 웹프로그래머, HTML, Java, mHTML, MS-SQL, MySQL, SQL, 아이폰, 안드로이드, 응용프로그래머, 전산전공, API, C, C#, C++, Java, SQL, 시스템프로그래머, 웹접근성, 웹퍼블리셔, 웹표준, 자바스크립트, CSS, CSS3, HTML5, HTML코딩, UI·UX, 시스템분석, 시스템설계, 시스템엔지니어, DBA, 빅데이터, 데이터분석, 소프트웨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡코리아(유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[잡코리아/알바몬] iOS, Android 앱 개발자 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력3년↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대졸↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~03/14(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android, Kotlin, 취업포털, 웹프로그래머, Java, 아이폰, 안드로이드, Application, Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡코리아(유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[잡코리아/알바몬] Front-End 개발자 (팀장급) 모집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력4년↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대졸↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 서초구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI설계, 프론트엔드, 취업포털, 웹접근성, 웹퍼블리셔, 웹표준, 자바스크립트, CSS, CSS3, HTML5, UI·UX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜소유 코퍼레이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[신규 캐릭터IP 라이선싱/ MD신규플랫폼 사업] 2022년 상반기 Development LAB 개발자 및 웹디자이너 경력직 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력2년↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대졸↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 마포구 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~03/02(수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWS, django, Docker, GIT, JavaScript, NODE.JS, React, UI·UX디자인, Nest.js, 공업디자인, 디자인, 시각디자인, 문구, MySQL, HTML, Java, jsp, MySQL, php, Python, 응용프로그래머, 전산전공, Java, Python, CSS, HTML5, HTML코딩, UI·UX, 웹UI, HTML, UI·UX디자인, 일러스트레이터, 포토샵, 문구디자인, 산업디자인, 악세사리디자인, 잡화디자인, 제품디자인, 팬시디자인, 포장디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[잡코리아/알바몬] iOS, Android 앱 개발자 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력3년↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 서초구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android, Kotlin, 취업포털, 웹프로그래머, Java, 아이폰, 안드로이드, Application, Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[잡코리아/알바몬] Front-End 개발자 (팀장급) 모집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대졸↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~03/10(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI설계, 프론트엔드, 취업포털, 웹접근성, 웹퍼블리셔, 웹표준, 자바스크립트, CSS, CSS3, HTML5, UI·UX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스케이쉴더스㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Platform개발본부 `22년 상반기 신입 개발자 수시 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 성남시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~04/23(토)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java, 빅데이터, 데이터처리, 서비스개발, 엔진개발, Cloud, EDA, Docker, Machine learning, MSA, Platform, springboot, Dataset, 네트워크보안, 보안소프트웨어, 보안컨설팅, 정보보안, 해킹, 데이터베이스, 데이터마이닝, 웹기획, 웹서비스기획, 컨텐츠기획, PM, 웹프로그래머, Java, 응용프로그래머, Java, 빅데이터, 데이터분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버파이낸셜㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력 1일 이상 개발자 공개채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학력무관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 성남시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>~02/28(월)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>학력무관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력무관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초대졸↑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 강남구 외</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~03/16(수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~03/11(금)</t>
+    <t>개발자, 금융서비스, 네이버, 레거시, 백엔드, 스프링, 커머스, 페이, 프론트엔드, 플랫폼, Back-end, ES5, Front-end, NoSQL, react.js, RDBMS, SPRING, 인터넷금융, MS-SQL, MySQL, SQL, 웹프로그래머, HTML, Java, mHTML, MS-SQL, MySQL, SQL, 응용프로그래머, API, Java, SQL, 시스템프로그래머, 자바스크립트, CSS, CSS3, HTML5, HTML코딩, 시스템설계, 시스템엔지니어, 요구분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜브이엠에스 솔루션스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022년 상반기 신입/경력 채용(개발자/경영지원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신입·경력5년↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대졸↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 용인시 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~03/04(금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발자, C#, 프로그래머, 코딩, mssql, script, web, 소프트웨어개발, 솔루션, asp, IT컨설팅, 경영기획, 기획, 경영지원, Oracle, 웹기획, 컨텐츠기획, PM, .NET, 웹프로그래머, asp, Java, MS-SQL, .NET, 응용프로그래머, ASP.NET, C#, Java, 펌웨어, 데이터분석, 펌웨어, 소프트웨어, 정보통신·IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제노소프트㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상 관련 응용프로그램 (Windows C# WPF, Android JAVA, 머신비젼) 분야별 개발자 모집 (신입/경력)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -125,606 +959,342 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회사명</t>
+    <t>서울 금천구 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어개발, 웹프로그래머, Java, jsp, MS-SQL, MySQL, Servlet, 안드로이드, 응용프로그래머, 증강현실, C, C#, C++, C++Builder, Java, MFC, 시스템프로그래머, 펌웨어, PLC, 웹접근성, 웹퍼블리셔, 웹표준, 자바스크립트, 시스템분석, 시스템설계, 시스템엔지니어, 유지보수, 펌웨어, 하드웨어, 소프트웨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 디자인 / 퍼블리싱 / JAVA 개발자 / 웹 기획 경력직 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 금천구 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~02/26(토)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eclipse, IntelliJ, jquery, SI, SM, IT컨설팅, 데이터베이스, DB2, DBA, DW, MS-SQL, MySQL, OCP, Oracle, SQL, Sybase, 데이터마이닝, 모바일기획, 사용자평가, 스토리보드, 웹기획, 웹서비스기획, 웹PD, 정보설계, 제안·컨설팅, 컨텐츠기획, 통계·로그분석, PM, UI설계, .NET, 웹프로그래머, AJAX, APM, asp, ASP.NET, cgi, EJB, HDML, HTML, Java, jsp, mHTML, MiPlatform, MS-SQL, MySQL, php, Python, SCJP, Servlet, SQL, VB.NET, VRML, WinForm, wml, xml, Ruby, .NET, 액션스크립트, 응용프로그래머, 전산전공, C, C#, C#Builder, C++, Java, Linux, Oracle, Pro-C, Python, SAP, SQL, Unix, VB.NET, VisualBasic, VisualC, VisualC++, VoIP, WAS, Win32, 웹접근성, 웹퍼블리셔, 웹표준, 자바스크립트, CSS, CSS3, HTML5, HTML코딩, UI·UX, 모바일UI, 웹UI, 일러스트레이터, 자바스크립트, 포토샵, 플래쉬, CSS, GUI, HTML, xml, Sketch, UI·UX디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시큐레터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022년 시큐레터 기술연구소 개발자 공개채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신입·경력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~03/31(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안기술, PM, Python, VPN, 백엔드, 보안솔루션, 시스템 운영관리, 악성코드, 제품기획, 클라우드, Bitbucket, Bamboo, CDR, Confluence, GIT, Jira, 보안 솔루션 기획, Visual Studio 2019, 네트워크보안, 백신프로그램, 보안컨설팅, 정보보안, 기술지원, 리눅스, 네트워크관리, 네트워크엔지니어, 보안관리, 보안기술, 서버관리자, 서버구축, 시스템운영, 정보보안, Linux, 웹프로그래머, Java, Python, C++, CTI, Java, Linux, 컨텐츠관리, 시스템엔지니어, 빅데이터, 유지보수, 소프트웨어, 기술지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전체평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>복지 및 급여</t>
-  </si>
-  <si>
-    <t>업무와 삶의 균형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>사내문화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>승진 기회 및 가능성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>경영진</t>
-  </si>
-  <si>
-    <t>㈜비즈테크파트너스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[LG그룹] RPA, 은행 및 금융IT FrontEnd, 모바일, 챗봇, MSA 개발자 인재채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력3년↑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대졸↑</t>
-  </si>
-  <si>
-    <t>서울 마포구 외</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA, 안드로이드, 프론트엔드, CAN, front end, IOS, MSA, 소프트웨어개발, 솔루션, ERP, 웹프로그래머, Java, 아이폰, 안드로이드, 응용프로그래머, 전산전공, Python, 인공지능(AI), 빅데이터, R, 챗봇(Chatbot)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대오토에버㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA 부문 경력 채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학력무관</t>
-  </si>
-  <si>
-    <t>서울 강남구</t>
-  </si>
-  <si>
-    <t>서울 강남구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~03/22(화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA, 소프트웨어개발, SM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>㈜한국인프라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>㈜한국인프라 창원사무소(경남 창원 근무) RPA 개발자 채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력무관</t>
-  </si>
-  <si>
-    <t>초대졸↑</t>
-  </si>
-  <si>
-    <t>경남 창원시</t>
-  </si>
-  <si>
-    <t>경남 창원시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~05/16(월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.NET, C#, Delphi, VisualC, VisualC++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>㈜한국인프라 RPA PM 및 개발자(신입/경력) 채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>솔루션, .NET, Java, Python, VB.NET, 시스템분석, 시스템설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동국시스템즈㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[동국시스템즈] RPA솔루션 개발자 모집(신입, 경력)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 중구</t>
-  </si>
-  <si>
-    <t>서울 중구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~03/12(토)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI, SM, C#, Java, VisualBasic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대IT&amp;E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021년 경력사원 수시채용 (웹/모바일 공통 외)[신기술(RPA)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력</t>
-  </si>
-  <si>
-    <t>경력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경영지원, 네트워크관리, 보안관리, 시스템운영, 정보보안, 아이폰, 안드로이드, Application, C#, Java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>㈜두잇시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA(Robot Process Automation) 개발자(경력, 신입) 정규직 채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신입·경력2년↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)이그니스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[이그니스] 랩노쉬 2022년 공개채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)네이처리퍼블릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이처리퍼블릭 부문별 신입/경력사원 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규직·인턴직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파워마스터반도체(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파워마스터반도체㈜ 각 부문별 신입/경력 사원 모집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북 청주시 흥덕구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/25(금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)디알텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022년 신입 및 경력채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)우진플라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜우진플라임 부문별 인재채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북 보은군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)윕스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)윕스 2022년 신입/경력직원 1분기 채용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서울 마포구</t>
-  </si>
-  <si>
-    <t>서울 마포구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~03/31(목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA, x-javaScript, Ui-Path, a.Works, 네트웍구축, 통신, 웹프로그래머, Java, 응용프로그래머, C#, Java, 자바스크립트, 로봇·자동화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로티앤에스㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA-Uipath 시스템 개발 및 운영 모집공고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 성동구</t>
-  </si>
-  <si>
-    <t>서울 성동구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA, 솔루션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위칸소프트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA, IT 경력자 모십니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력2년↑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 종로구 외</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA, 소프트웨어개발, BI, BigData, CRM, ERP, .NET, C#, Java, Python, VisualBasic, 자바스크립트, 소프트웨어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>㈜대원씨앤씨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[선릉/SM] 생명보험사 RPA 시스템 운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신입·경력</t>
-  </si>
-  <si>
-    <t>RPA, ERP, SM, 웹프로그래머, 응용프로그래머</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채용공고</t>
-  </si>
-  <si>
-    <t>지역</t>
-  </si>
-  <si>
-    <t>학력</t>
-  </si>
-  <si>
-    <t>근로계약</t>
-  </si>
-  <si>
-    <t>신청기간</t>
-  </si>
-  <si>
-    <t>(주)유플러스아이티</t>
-  </si>
-  <si>
-    <t>금융 개발 경력 및 신입 개발자 정규직 채용</t>
-  </si>
-  <si>
-    <t>서울 영등포구</t>
-  </si>
-  <si>
-    <t>정규직·계약직</t>
-  </si>
-  <si>
-    <t>상시채용</t>
-  </si>
-  <si>
-    <t>한국스코어링(주)</t>
-  </si>
-  <si>
-    <t>[신입] AI 기반 업무자동화(RPA) 구현 개발자 채용(서울)</t>
-  </si>
-  <si>
-    <t>신입</t>
-  </si>
-  <si>
-    <t>정규직</t>
-  </si>
-  <si>
-    <t>~ 03/07(월)</t>
-  </si>
-  <si>
-    <t>[신입] AI 기반 업무자동화(RPA) 구현 신입 개발자 채용(창원)</t>
-  </si>
-  <si>
-    <t>(주)두잇시스템</t>
-  </si>
-  <si>
-    <t>RPA(Robot Process Automation) 개발자(경력, 신입)채용(정규직)</t>
-  </si>
-  <si>
-    <t>~ 02/28(월)</t>
-  </si>
-  <si>
-    <t>(주)굿인벤트</t>
-  </si>
-  <si>
-    <t>[정규직/여의도] 기획개발팀 RPA/웹개발자 신입 모집</t>
-  </si>
-  <si>
-    <t>채용시</t>
-  </si>
-  <si>
-    <t>(주)하이아스</t>
-  </si>
-  <si>
-    <t>JAVA 개발자 global 솔류션 delivery</t>
-  </si>
-  <si>
-    <t>~ 04/09(토)</t>
-  </si>
-  <si>
-    <t>(주)에이비씨마트코리아</t>
-  </si>
-  <si>
-    <t>[에이비씨마트코리아] 각 부문 신입/경력 채용</t>
-  </si>
-  <si>
-    <t>(주)동화엔텍</t>
-  </si>
-  <si>
-    <t>전산보안팀 서버 개발자</t>
-  </si>
-  <si>
-    <t>부산전체</t>
-  </si>
-  <si>
-    <t>대상정보기술(주)</t>
-  </si>
-  <si>
-    <t>[대상정보기술] 그룹웨어 시스템 유지보수 담당자 채용</t>
-  </si>
-  <si>
-    <t>서울 광진구</t>
-  </si>
-  <si>
-    <t>~ 03/05(토)</t>
-  </si>
-  <si>
-    <t>[신입/경력] RPA 개발 및 유지보수 인력 채용</t>
-  </si>
-  <si>
-    <t>~ 03/13(일)</t>
-  </si>
-  <si>
-    <t>엘에스오토모티브테크놀로지스(주)</t>
-  </si>
-  <si>
-    <t>LS오토모티브 2022년 신입/경력 공개채용</t>
-  </si>
-  <si>
-    <t>경기 안양시</t>
-  </si>
-  <si>
-    <t>~ 03/06(일)</t>
-  </si>
-  <si>
-    <t>(주)케이엠더블유</t>
-  </si>
-  <si>
-    <t>통신연구소 신입 공채 및 경력(개발/기술/품질) 수시채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)지아이티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대자동차 그룹사 (주)지아이티 상반기 대규모 공채/수시 채용 (경력/신입)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인턴직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)한국디지털거래소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라이빗 가상자산거래소 (FLYBIT) 2022년 상반기 각 부문별 경력직원 채용공고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신화인터텍(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[효성계열사] 신화인터텍(주) 각부문 신입/경력 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세종상공회의소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세종시 디지털 분야 청년일자리 지원사업 참여청년 모집공고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세종특별자치시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)에듀윌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에듀윌 부문별 인재 모집 (DBA/학점은행제/출판 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)동진쎄미켐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜동진쎄미켐 각 부문 신입/경력 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)지즐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[한솔그룹 계열사] 상반기 각 부문 신입 및 경력 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>경기 화성시</t>
-  </si>
-  <si>
-    <t>지티플러스(주)</t>
-  </si>
-  <si>
-    <t>지티플러스 2022년 상반기 부문별 공개 채용</t>
-  </si>
-  <si>
-    <t>서울 서초구</t>
-  </si>
-  <si>
-    <t>~ 03/15(화)</t>
-  </si>
-  <si>
-    <t>선보공업(주)</t>
-  </si>
-  <si>
-    <t>전산 (신입/경력) ERP 개발, WEB / APP 개발, 전산 인프라 관리</t>
-  </si>
-  <si>
-    <t>부산 사하구</t>
-  </si>
-  <si>
-    <t>~ 03/11(금)</t>
-  </si>
-  <si>
-    <t>(주)이테크시스템</t>
-  </si>
-  <si>
-    <t>PM / PL / 개발자 채용 - RPA 개발 및 프로젝트 진행</t>
-  </si>
-  <si>
-    <t>(주)하이로닉</t>
-  </si>
-  <si>
-    <t>[코스닥상장사] (주)하이로닉 각 부문별 정규직 채용</t>
-  </si>
-  <si>
-    <t>경기 용인시 수지구</t>
-  </si>
-  <si>
-    <t>~ 03/20(일)</t>
-  </si>
-  <si>
-    <t>경포씨엔씨</t>
-  </si>
-  <si>
-    <t>[(주)경포씨엔씨] RPA 개발자 채용</t>
-  </si>
-  <si>
-    <t>(주)한국소프트웨어아이엔씨</t>
-  </si>
-  <si>
-    <t>[국비/노동부지원100%무료IT취업과정]JAVA/자바개발자 취업과정</t>
-  </si>
-  <si>
-    <t>서울 금천구</t>
-  </si>
-  <si>
-    <t>교육생</t>
-  </si>
-  <si>
-    <t>(주)그리드원</t>
-  </si>
-  <si>
-    <t>RPA 업무자동화 스크립트 개발 &amp; 인공지능 필드 엔지니어</t>
-  </si>
-  <si>
-    <t>~ 03/24(목)</t>
-  </si>
-  <si>
-    <t>(주)이수시스템</t>
-  </si>
-  <si>
-    <t>이수그룹 IT회사 신입/경력직 채용</t>
-  </si>
-  <si>
-    <t>(주)다루소프트</t>
-  </si>
-  <si>
-    <t>2022 (Java·JSP) 신입.경력직 개발팀 채용합니다.</t>
-  </si>
-  <si>
-    <t>서울 강동구</t>
-  </si>
-  <si>
-    <t>고졸↑</t>
-  </si>
-  <si>
-    <t>~ 03/14(월)</t>
-  </si>
-  <si>
-    <t>지식시스템㈜ KSTEC Inc.</t>
-  </si>
-  <si>
-    <t>[KSTEC] AI &amp; Optimization 기술융합 신입 컨설턴트 모집</t>
-  </si>
-  <si>
-    <t>경기 성남시 분당구</t>
-  </si>
-  <si>
-    <t>오늘마감</t>
-  </si>
-  <si>
-    <t>[KSTEC] Prescriptive Analytics 컨설턴트 신입 채용</t>
-  </si>
-  <si>
-    <t>정규직·인턴직</t>
-  </si>
-  <si>
-    <t>[KSTEC] 통계/Analytics 신입 및 경력사원 채용</t>
-  </si>
-  <si>
-    <t>(주)피노</t>
-  </si>
-  <si>
-    <t>[(주)피노 SI개발팀] JAVA개발자 경력/신입 상시채용</t>
-  </si>
-  <si>
-    <t>부산 해운대구</t>
-  </si>
-  <si>
-    <t>[(주)피노] JAVA개발자 경력/신입 상시채용</t>
-  </si>
-  <si>
-    <t>경남 사천시</t>
-  </si>
-  <si>
-    <t>[(주)피노] 퍼블리셔 경력/신입 상시채용</t>
-  </si>
-  <si>
-    <t>(주)컴트루테크놀로지</t>
-  </si>
-  <si>
-    <t>[인공지능 정보보안] 개발자 부문 - Web, Spring, C/C++</t>
-  </si>
-  <si>
-    <t>~ 02/27(일)</t>
-  </si>
-  <si>
-    <t>주은교육(주)</t>
-  </si>
-  <si>
-    <t>주은교육 2022년 상반기 공채 추가 채용 공고</t>
-  </si>
-  <si>
-    <t>대구 달서구</t>
-  </si>
-  <si>
-    <t>(주)유니드컴즈</t>
-  </si>
-  <si>
-    <t>[킵그로우] 백엔드 개발자(Python)</t>
-  </si>
-  <si>
-    <t>서울전체</t>
-  </si>
-  <si>
-    <t>테이크솔루션(주)</t>
-  </si>
-  <si>
-    <t>[경력&amp;신입] RPA사업부 개발 및 구축 인재 모집</t>
-  </si>
-  <si>
-    <t>비바엔에스</t>
-  </si>
-  <si>
-    <t>RPA 스크립트 개발 및 기술지원</t>
-  </si>
-  <si>
-    <t>메이븐클라우드서비스(주)</t>
-  </si>
-  <si>
-    <t>데이터시각화, RPA 개발자, Azure 엔지니어 (신입/경력)</t>
-  </si>
-  <si>
-    <t>(주)카이정보</t>
-  </si>
-  <si>
-    <t>2022년 웹프로그래머 신입, 경력 채용합니다</t>
-  </si>
-  <si>
-    <t>정규직·프리랜서</t>
-  </si>
-  <si>
-    <t>~ 03/31(목)</t>
-  </si>
-  <si>
-    <t>(주)마이링크</t>
-  </si>
-  <si>
-    <t>[MY LINK] 2022 상반기 웹개발,S/W, Big Data, AI 각 신입 채용</t>
-  </si>
-  <si>
-    <t>대전 유성구</t>
-  </si>
-  <si>
-    <t>~ 03/21(월)</t>
-  </si>
-  <si>
-    <t>(주)와이티</t>
-  </si>
-  <si>
-    <t>Java 웹개발자 채용 [신입(정규직)]</t>
-  </si>
-  <si>
-    <t>~ 04/17(일)</t>
-  </si>
-  <si>
-    <t>인지소프트</t>
-  </si>
-  <si>
-    <t>(주)인지소프트 RPA프로젝트수행 신입/경력직 채용</t>
-  </si>
-  <si>
-    <t>~ 04/25(월)</t>
-  </si>
-  <si>
-    <t>(주)부뜰정보시스템</t>
-  </si>
-  <si>
-    <t>[정규직] RPA 개발자 신입사원 채용 공고</t>
-  </si>
-  <si>
-    <t>(주)이든티앤에스</t>
-  </si>
-  <si>
-    <t>[정규직] RPA 개발자/PM 신입/경력 모집합니다</t>
-  </si>
-  <si>
-    <t>㈜피죤</t>
-  </si>
-  <si>
-    <t>[(주)피죤] IT팀 신입/경력사원 모집</t>
-  </si>
-  <si>
-    <t>~ 03/04(금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/08(화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)머스트잇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[MUST IT] 개발자 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대우전자부품(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2022년] 대우전자부품㈜ 상반기 공개 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전북 정읍시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/03(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)휴맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜휴맥스그룹사 신입/경력 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메가존클라우드(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[메가존클라우드] Sales &amp; Marketing 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)해피머니아이엔씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022년 각 부문별 신입/경력 채용 (CS/제휴/디자인/총무/개발)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)리브스메드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇/기계/영업/인사/회계 등 전 분야 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)캐플릭스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐플릭스 부문별 경력 / 신입 인재 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주 제주시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)유니포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022년 상반기 유니포인트 신입/경력 공개채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 동작구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸이머코리아(유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 상반기 Cymer Korea 신입/경력사원 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)데이터스트림즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)데이터스트림즈 빅데이터 전문기업 부문별 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)지에스아이티엠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS ITM 프로젝트 PL경력사원 공개채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력7년↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)어빌리티시스템즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜어빌리티시스템즈 각 부문 신입/경력 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)발란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사 총괄(HRBP), 인사(급여, 보상), 인사/총무 (오피스 매니저)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력5년↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -742,12 +1312,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -764,8 +1340,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,7 +1660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B07B4D7-99EA-429E-8505-81E24C140B2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1089,105 +1668,123 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>59</v>
+      </c>
+      <c r="H2">
+        <v>2.4</v>
+      </c>
+      <c r="I2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J2">
+        <v>2.1</v>
+      </c>
+      <c r="K2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L2">
+        <v>2.4</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="H3">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="I3">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>3.8</v>
       </c>
       <c r="K3">
+        <v>3.3</v>
+      </c>
+      <c r="L3">
         <v>3.1</v>
-      </c>
-      <c r="L3">
-        <v>2.4</v>
       </c>
       <c r="M3">
         <v>2.2999999999999998</v>
@@ -1195,221 +1792,221 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>257</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>258</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H4">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="I4">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="J4">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="K4">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="M4">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5">
-        <v>2.6</v>
-      </c>
-      <c r="I5">
-        <v>1.9</v>
-      </c>
-      <c r="J5">
-        <v>2.9</v>
-      </c>
-      <c r="K5">
-        <v>2.6</v>
-      </c>
-      <c r="L5">
-        <v>2.5</v>
-      </c>
-      <c r="M5">
-        <v>2.2999999999999998</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>260</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>261</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>78</v>
+      </c>
+      <c r="H7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J7">
+        <v>2.4</v>
+      </c>
+      <c r="K7">
+        <v>2.1</v>
+      </c>
+      <c r="L7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M7">
+        <v>1.8</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>262</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>263</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>264</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>265</v>
       </c>
       <c r="H8">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="J8">
-        <v>2.2000000000000002</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="L8">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
         <v>2.9</v>
       </c>
-      <c r="I9">
-        <v>3.1</v>
-      </c>
       <c r="J9">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="K9">
         <v>2.7</v>
@@ -1418,30 +2015,30 @@
         <v>2.9</v>
       </c>
       <c r="M9">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="G10" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="H10">
         <v>2.7</v>
@@ -1450,54 +2047,54 @@
         <v>2.4</v>
       </c>
       <c r="J10">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L10">
+        <v>2.7</v>
+      </c>
+      <c r="M10">
         <v>2.2000000000000002</v>
-      </c>
-      <c r="M10">
-        <v>2.1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>266</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>267</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="H11">
         <v>2.7</v>
       </c>
       <c r="I11">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J11">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="K11">
         <v>2.9</v>
       </c>
       <c r="L11">
-        <v>2.2000000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="M11">
         <v>2.1</v>
@@ -1505,1321 +2102,1321 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="H12">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="I12">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="J12">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="K12">
-        <v>2.9</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L12">
-        <v>2.2000000000000002</v>
+        <v>3.9</v>
       </c>
       <c r="M12">
-        <v>2.1</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="H13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I13">
+        <v>1.7</v>
+      </c>
+      <c r="J13">
         <v>2.7</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>2.4</v>
-      </c>
-      <c r="J13">
-        <v>3.4</v>
-      </c>
-      <c r="K13">
-        <v>2.9</v>
       </c>
       <c r="L13">
         <v>2.2000000000000002</v>
       </c>
       <c r="M13">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="H14">
+        <v>2.5</v>
+      </c>
+      <c r="I14">
+        <v>2.7</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
         <v>2.4</v>
       </c>
-      <c r="I14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J14">
-        <v>2.1</v>
-      </c>
-      <c r="K14">
-        <v>2.2999999999999998</v>
-      </c>
       <c r="L14">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="H15">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>2.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>2.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H16">
-        <v>3.4</v>
-      </c>
-      <c r="I16">
-        <v>3.1</v>
-      </c>
-      <c r="J16">
-        <v>3.7</v>
-      </c>
-      <c r="K16">
-        <v>3.6</v>
-      </c>
-      <c r="L16">
-        <v>3.2</v>
-      </c>
-      <c r="M16">
-        <v>2.9</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="H17">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="I17">
+        <v>3.1</v>
+      </c>
+      <c r="J17">
         <v>2.4</v>
       </c>
-      <c r="J17">
-        <v>2.1</v>
-      </c>
       <c r="K17">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L17">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="M17">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>269</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>270</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="H18">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="I18">
-        <v>2.2999999999999998</v>
+        <v>1.6</v>
       </c>
       <c r="J18">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="K18">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="L18">
-        <v>2.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M18">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="H19">
+        <v>2.4</v>
+      </c>
+      <c r="I19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K19">
+        <v>2.4</v>
+      </c>
+      <c r="L19">
         <v>2.7</v>
       </c>
-      <c r="I19">
-        <v>2.4</v>
-      </c>
-      <c r="J19">
-        <v>3.8</v>
-      </c>
-      <c r="K19">
-        <v>3.1</v>
-      </c>
-      <c r="L19">
-        <v>2.4</v>
-      </c>
       <c r="M19">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H20">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="I20">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J20">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="K20">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L20">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="M20">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>271</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>272</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>273</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="H21">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="J21">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="K21">
         <v>2.9</v>
       </c>
       <c r="L21">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M21">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>274</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>275</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>97</v>
+        <v>276</v>
       </c>
       <c r="G22" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="H22">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I22">
+        <v>2.6</v>
+      </c>
+      <c r="J22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L22">
+        <v>2.1</v>
+      </c>
+      <c r="M22">
         <v>1.8</v>
-      </c>
-      <c r="J22">
-        <v>2.8</v>
-      </c>
-      <c r="K22">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="L22">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="M22">
-        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>277</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>278</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="H23">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="I23">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="J23">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="K23">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L23">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="M23">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>279</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>280</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
-        <v>149</v>
+        <v>54</v>
       </c>
       <c r="H24">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="I24">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="J24">
-        <v>2.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K24">
-        <v>2.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L24">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M24">
-        <v>2.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>281</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>282</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>283</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s">
-        <v>102</v>
-      </c>
-      <c r="H25">
-        <v>3.6</v>
-      </c>
-      <c r="I25">
-        <v>3.5</v>
-      </c>
-      <c r="J25">
-        <v>3.7</v>
-      </c>
-      <c r="K25">
-        <v>3.2</v>
-      </c>
-      <c r="L25">
-        <v>3.5</v>
-      </c>
-      <c r="M25">
-        <v>3.1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>284</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>285</v>
       </c>
       <c r="C26" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="G26" t="s">
-        <v>156</v>
-      </c>
-      <c r="H26">
-        <v>1.3</v>
-      </c>
-      <c r="I26">
-        <v>1.3</v>
-      </c>
-      <c r="J26">
-        <v>1.3</v>
-      </c>
-      <c r="K26">
-        <v>1.5</v>
-      </c>
-      <c r="L26">
-        <v>1.3</v>
-      </c>
-      <c r="M26">
-        <v>1.3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>286</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>287</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>273</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="G27" t="s">
-        <v>160</v>
+        <v>165</v>
+      </c>
+      <c r="H27">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I27">
+        <v>2.1</v>
+      </c>
+      <c r="J27">
+        <v>1.9</v>
+      </c>
+      <c r="K27">
+        <v>2.1</v>
+      </c>
+      <c r="L27">
+        <v>2.6</v>
+      </c>
+      <c r="M27">
+        <v>1.7</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>288</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>289</v>
       </c>
       <c r="C28" t="s">
-        <v>159</v>
+        <v>290</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F28" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s">
-        <v>160</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>293</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s">
-        <v>160</v>
+        <v>59</v>
+      </c>
+      <c r="H29">
+        <v>3.7</v>
+      </c>
+      <c r="I29">
+        <v>2.9</v>
+      </c>
+      <c r="J29">
+        <v>3.7</v>
+      </c>
+      <c r="K29">
+        <v>3.3</v>
+      </c>
+      <c r="L29">
+        <v>3.9</v>
+      </c>
+      <c r="M29">
+        <v>3.2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>295</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>296</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>160</v>
+        <v>297</v>
+      </c>
+      <c r="H30">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I30">
+        <v>2.9</v>
+      </c>
+      <c r="J30">
+        <v>1.7</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>2.4</v>
+      </c>
+      <c r="M30">
+        <v>1.7</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>298</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="G31" t="s">
-        <v>160</v>
+        <v>84</v>
+      </c>
+      <c r="H31">
+        <v>2.8</v>
+      </c>
+      <c r="I31">
+        <v>2.8</v>
+      </c>
+      <c r="J31">
+        <v>3.6</v>
+      </c>
+      <c r="K31">
+        <v>3.4</v>
+      </c>
+      <c r="L31">
+        <v>2.5</v>
+      </c>
+      <c r="M31">
+        <v>2.1</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>300</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>301</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="G32" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>157</v>
+        <v>302</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>303</v>
       </c>
       <c r="C33" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="F33" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>160</v>
+        <v>64</v>
+      </c>
+      <c r="H33">
+        <v>2.4</v>
+      </c>
+      <c r="I33">
+        <v>2.5</v>
+      </c>
+      <c r="J33">
+        <v>3.7</v>
+      </c>
+      <c r="K33">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L33">
+        <v>2.4</v>
+      </c>
+      <c r="M33">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>304</v>
       </c>
       <c r="B34" t="s">
-        <v>161</v>
+        <v>305</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="F34" t="s">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="G34" t="s">
-        <v>160</v>
+        <v>72</v>
+      </c>
+      <c r="H34">
+        <v>3.2</v>
+      </c>
+      <c r="I34">
+        <v>3.2</v>
+      </c>
+      <c r="J34">
+        <v>2.8</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>3.3</v>
+      </c>
+      <c r="M34">
+        <v>2.7</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>157</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s">
-        <v>163</v>
+        <v>307</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>308</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F35" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="G35" t="s">
-        <v>160</v>
+        <v>149</v>
+      </c>
+      <c r="H35">
+        <v>3.9</v>
+      </c>
+      <c r="I35">
+        <v>3.6</v>
+      </c>
+      <c r="J35">
+        <v>3.6</v>
+      </c>
+      <c r="K35">
+        <v>3.5</v>
+      </c>
+      <c r="L35">
+        <v>3.8</v>
+      </c>
+      <c r="M35">
+        <v>3.4</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="C36" t="s">
-        <v>166</v>
+        <v>311</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F36" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="G36" t="s">
-        <v>93</v>
+        <v>291</v>
       </c>
       <c r="H36">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="I36">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="J36">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="K36">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="L36">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>1.4</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>164</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s">
-        <v>167</v>
+        <v>313</v>
       </c>
       <c r="C37" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="F37" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="G37" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H37">
-        <v>1.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I37">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="J37">
-        <v>1.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K37">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="L37">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="M37">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>164</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s">
-        <v>169</v>
+        <v>315</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F38" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="G38" t="s">
-        <v>93</v>
-      </c>
-      <c r="H38">
-        <v>1.5</v>
-      </c>
-      <c r="I38">
-        <v>1.6</v>
-      </c>
-      <c r="J38">
-        <v>1.8</v>
-      </c>
-      <c r="K38">
-        <v>1.6</v>
-      </c>
-      <c r="L38">
-        <v>1.9</v>
-      </c>
-      <c r="M38">
-        <v>1.4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>164</v>
+        <v>316</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>317</v>
       </c>
       <c r="C39" t="s">
-        <v>166</v>
+        <v>68</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F39" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="G39" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="H39">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="I39">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="J39">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="K39">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L39">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="M39">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>319</v>
       </c>
       <c r="B40" t="s">
-        <v>167</v>
+        <v>320</v>
       </c>
       <c r="C40" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F40" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="G40" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H40">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="I40">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="J40">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="K40">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="L40">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="M40">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>321</v>
       </c>
       <c r="B41" t="s">
-        <v>169</v>
+        <v>322</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>323</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s">
-        <v>93</v>
-      </c>
-      <c r="H41">
-        <v>1.5</v>
-      </c>
-      <c r="I41">
-        <v>1.6</v>
-      </c>
-      <c r="J41">
-        <v>1.8</v>
-      </c>
-      <c r="K41">
-        <v>1.6</v>
-      </c>
-      <c r="L41">
-        <v>1.9</v>
-      </c>
-      <c r="M41">
-        <v>1.4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F42" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="G42" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="H42">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="I42">
-        <v>1.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J42">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="K42">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L42">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="M42">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="G43" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H43">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="I43">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="J43">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="K43">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="L43">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M43">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F44" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="G44" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H44">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="I44">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="J44">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="K44">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="L44">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M44">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="F45" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
-        <v>172</v>
-      </c>
-      <c r="H45">
-        <v>2.4</v>
-      </c>
-      <c r="I45">
-        <v>2.1</v>
-      </c>
-      <c r="J45">
-        <v>2.4</v>
-      </c>
-      <c r="K45">
-        <v>2.8</v>
-      </c>
-      <c r="L45">
-        <v>2.5</v>
-      </c>
-      <c r="M45">
-        <v>1.8</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F46" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="G46" t="s">
-        <v>119</v>
-      </c>
-      <c r="H46">
-        <v>1.6</v>
-      </c>
-      <c r="I46">
-        <v>1.2</v>
-      </c>
-      <c r="J46">
-        <v>1.8</v>
-      </c>
-      <c r="K46">
-        <v>2</v>
-      </c>
-      <c r="L46">
-        <v>1.4</v>
-      </c>
-      <c r="M46">
-        <v>1.3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>178</v>
+        <v>105</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F47" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="G47" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2842,25 +3439,25 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2883,25 +3480,25 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2924,71 +3521,71 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>187</v>
+        <v>26</v>
       </c>
       <c r="G51" t="s">
-        <v>188</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>189</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>192</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="B53" t="s">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="H53">
         <v>2.9</v>
@@ -3011,25 +3608,25 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c r="H54">
         <v>2.4</v>
@@ -3052,48 +3649,48 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>199</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="G55" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>202</v>
+        <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="G56" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="H56">
         <v>2.4</v>
@@ -3116,25 +3713,25 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>204</v>
+        <v>43</v>
       </c>
       <c r="C57" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
         <v>44</v>
-      </c>
-      <c r="E57" t="s">
-        <v>32</v>
-      </c>
-      <c r="F57" t="s">
-        <v>97</v>
-      </c>
-      <c r="G57" t="s">
-        <v>205</v>
       </c>
       <c r="H57">
         <v>2.2999999999999998</v>
@@ -3162,508 +3759,672 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD03541-2137-4F7C-94EC-7FF0B4FFAAA3}">
-  <dimension ref="A1:M13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
+      <c r="A1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="H2">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I2">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="J2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K2">
         <v>2.8</v>
       </c>
       <c r="L2">
+        <v>2.7</v>
+      </c>
+      <c r="M2">
         <v>2.5</v>
-      </c>
-      <c r="M2">
-        <v>2.4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="H3">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I3">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K3">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L3">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="M3">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>203</v>
       </c>
       <c r="H4">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K4">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L4">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="M4">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>209</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5">
-        <v>3.3</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>3.6</v>
-      </c>
-      <c r="K5">
-        <v>3.1</v>
-      </c>
-      <c r="L5">
-        <v>3.7</v>
-      </c>
-      <c r="M5">
-        <v>2.9</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>213</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="H6">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
       <c r="J6">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K6">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L6">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="M6">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>215</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>217</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>218</v>
       </c>
       <c r="H7">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I7">
         <v>3</v>
       </c>
       <c r="J7">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K7">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L7">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="M7">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>221</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>223</v>
       </c>
       <c r="H8">
+        <v>2.7</v>
+      </c>
+      <c r="I8">
+        <v>2.1</v>
+      </c>
+      <c r="J8">
         <v>2.9</v>
       </c>
-      <c r="I8">
+      <c r="K8">
+        <v>2.7</v>
+      </c>
+      <c r="L8">
+        <v>2.8</v>
+      </c>
+      <c r="M8">
         <v>2.2000000000000002</v>
-      </c>
-      <c r="J8">
-        <v>3.5</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <v>2.6</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>225</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>228</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>230</v>
+      </c>
+      <c r="H9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I9">
+        <v>4.5</v>
+      </c>
+      <c r="J9">
+        <v>3.8</v>
+      </c>
+      <c r="K9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L9">
+        <v>4.2</v>
+      </c>
+      <c r="M9">
+        <v>3.4</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>232</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>233</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>234</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>235</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10">
-        <v>2.6</v>
-      </c>
-      <c r="I10">
-        <v>1.9</v>
-      </c>
-      <c r="J10">
-        <v>2.9</v>
-      </c>
-      <c r="K10">
-        <v>2.6</v>
-      </c>
-      <c r="L10">
-        <v>2.5</v>
-      </c>
-      <c r="M10">
-        <v>2.2999999999999998</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>234</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>241</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>242</v>
       </c>
       <c r="H11">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>246</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>251</v>
       </c>
       <c r="H13">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="I13">
-        <v>2.2999999999999998</v>
+        <v>3.5</v>
       </c>
       <c r="J13">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K13">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="L13">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="M13">
-        <v>2.6</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14">
+        <v>1.8</v>
+      </c>
+      <c r="I14">
+        <v>1.6</v>
+      </c>
+      <c r="J14">
+        <v>1.6</v>
+      </c>
+      <c r="K14">
+        <v>1.4</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15">
+        <v>1.8</v>
+      </c>
+      <c r="I15">
+        <v>1.6</v>
+      </c>
+      <c r="J15">
+        <v>1.6</v>
+      </c>
+      <c r="K15">
+        <v>1.4</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16">
+        <v>1.8</v>
+      </c>
+      <c r="I16">
+        <v>1.6</v>
+      </c>
+      <c r="J16">
+        <v>1.6</v>
+      </c>
+      <c r="K16">
+        <v>1.4</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17">
+        <v>1.8</v>
+      </c>
+      <c r="I17">
+        <v>1.6</v>
+      </c>
+      <c r="J17">
+        <v>1.6</v>
+      </c>
+      <c r="K17">
+        <v>1.4</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -3673,7 +4434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE13ED8-7A05-4639-AFDE-D29630BA23A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
